--- a/experiment_files/all_experiments.xlsx
+++ b/experiment_files/all_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caspa\Qsync\Dokumenter\Skole &amp; Uddannelse\AAU\Software Kandidat\7. Semester\WI\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F846EDF-E42C-44AF-999D-0AFFC6B31667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2428A7-704D-4AEC-B79F-9B4CD5D9BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>sg': 1, 'vector_size': 100, 'window': 2, 'negative': 5, 'min_count': 5</t>
   </si>
@@ -287,29 +287,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,7 +1567,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,12 +1580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1604,12 +1602,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1887,12 +1885,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -1960,12 +1958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2082,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91858CC-FED1-41BC-9FC1-2CE8D68A6964}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,14 +2096,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,14 +2113,14 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2323,11 +2321,57 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14">
+        <f>AVERAGE(C4:C12)</f>
+        <v>12.30111111111111</v>
+      </c>
+      <c r="D19" s="14">
+        <f>AVERAGE(E4:E12)</f>
+        <v>79.103333333333325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="14">
+        <f>AVERAGE(D4:D12)</f>
+        <v>14.254444444444447</v>
+      </c>
+      <c r="D20" s="14">
+        <f>AVERAGE(F4:F12)</f>
+        <v>21.864444444444445</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
